--- a/校准模式下编码器修正数据/编码器修正数据.xlsx
+++ b/校准模式下编码器修正数据/编码器修正数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,14 +60,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,28 +518,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,118 +551,115 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -781,7 +774,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0074685534591195"/>
+          <c:y val="0.0990566037735849"/>
+          <c:w val="0.982055817610063"/>
+          <c:h val="0.817057623661397"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smooth"/>
         <c:varyColors val="0"/>
@@ -6310,15 +6313,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6326,7 +6329,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="904875" y="1047750"/>
+        <a:off x="942975" y="2457450"/>
         <a:ext cx="16154400" cy="4980940"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6601,7 +6604,7 @@
   <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
